--- a/biology/Médecine/Service_public_hospitalier/Service_public_hospitalier.xlsx
+++ b/biology/Médecine/Service_public_hospitalier/Service_public_hospitalier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le service public hospitalier (SPH) est un type particulier de service public français exerçant une mission d’intérêt général. Il se compose de missions de service public confiées à des établissements de santé et éventuellement à d'autres services.
 Il vise à « garantir à chaque citoyen dans des conditions d’égalité, quels que soient son niveau de revenu et son lieu d’habitation, l’accès à l’ensemble des biens et des services jugés fondamentaux ».
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La notion de Service public hospitalier a été introduite dans le droit français par la loi no 70-1318 du 31 décembre 1970[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La notion de Service public hospitalier a été introduite dans le droit français par la loi no 70-1318 du 31 décembre 1970.
 Le service public hospitalier s'organisait de la manière suivante : 
 les établissements publics de santé exerçaient de plein droit le service public hospitalier ;
 les établissements de santé privés :
@@ -552,9 +566,11 @@
           <t>Missions du service public hospitalier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le code de la santé publique fixe, en son article L6112-1[2], 14 missions de service public recouvrant : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le code de la santé publique fixe, en son article L6112-1, 14 missions de service public recouvrant : 
 la permanence des soins ;
 la prise en charge des soins palliatifs ;
 l'enseignement universitaire et post-universitaire ;
@@ -569,7 +585,7 @@
 les soins dispensés aux détenus en milieu pénitentiaire et, si nécessaire, en milieu hospitalier, dans des conditions définies par décret ;
 les soins dispensés aux personnes retenues en application de l'article L. 551-1 du code de l'entrée et du séjour des étrangers et du droit d'asile ;
 les soins dispensés aux personnes retenues dans les centres socio-médico-judiciaires de sûreté.
-La nouvelle loi de modernisation du système de santé, portée par la ministre Marisol Touraine réintroduit la notion de Service Public Hospitalier en tant que bloc d'obligations inséparables au lieu des 14 missions de la loi HPST qui pouvaient être exercées séparément[3].
+La nouvelle loi de modernisation du système de santé, portée par la ministre Marisol Touraine réintroduit la notion de Service Public Hospitalier en tant que bloc d'obligations inséparables au lieu des 14 missions de la loi HPST qui pouvaient être exercées séparément.
 Le service public hospitalier exerce l'ensemble des missions dévolues aux établissements de santé ainsi que l'aide médicale urgente, dans le respect des principes du service public : d'égalité d'accès et de prise en charge, de continuité, d'adaptation et de neutralité
 Les obligations des établissements et des professionnels participant au SPH sont : 
 « 1° Un accueil adapté, notamment lorsque cette personne est en situation de handicap ou de précarité sociale, et un délai de prise en charge correct.
@@ -584,11 +600,7 @@
 « 2° Les hôpitaux des armées ;
 « 3° Les établissements de santé privés habilités par l'ARS
 En cas d'habilitation l'ensemble de l'activité de l'établissement doit se conformer aux obligations du SPH. L'autorité de la commission médicale d'établissement est renforcée. La possibilité de simple association pour les services d'urgence est maintenue. Auquel cas seul le service d'urgence devra se conformer aux obligations du SPH.
-Poids du service public hospitalier
-Sur l'ensemble du système hospitalier français, le secteur public hospitalier représente :
-62 % des établissements ;
-80 % des lits d’hospitalisation ;
-82 % des places d’hospitalisation[réf. nécessaire].</t>
+</t>
         </is>
       </c>
     </row>
@@ -613,16 +625,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Une variété d'acteurs</t>
+          <t>Missions du service public hospitalier</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ces missions de service public sont assurées par une large variété d'acteurs définis à l'article L.6112-2 du code de la santé publique, en premier lieu les établissements publics de santé et des établissements de santé privés, dont les centres régionaux de lutte contre le cancer.
-Peuvent également être chargés de ces missions, dans la mesure de leurs moyens, le Service de santé des armées, l'Institution nationale des invalides, les centres de santé, les maisons de santé, les pôles de santé et les groupements de coopération sanitaire.
-L’association au service public hospitalier
-C’est un contrat conclu entre deux ou plusieurs établissements de santé dont un au moins est de droit public pour assurer le fonctionnement du service public hospitalier (loi du 31 juillet 1970). Ces contrats sont voués à disparition prochaine dans le cadre de la loi HPST.
-</t>
+          <t>Poids du service public hospitalier</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sur l'ensemble du système hospitalier français, le secteur public hospitalier représente :
+62 % des établissements ;
+80 % des lits d’hospitalisation ;
+82 % des places d’hospitalisation[réf. nécessaire].</t>
         </is>
       </c>
     </row>
@@ -647,10 +664,83 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Une variété d'acteurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces missions de service public sont assurées par une large variété d'acteurs définis à l'article L.6112-2 du code de la santé publique, en premier lieu les établissements publics de santé et des établissements de santé privés, dont les centres régionaux de lutte contre le cancer.
+Peuvent également être chargés de ces missions, dans la mesure de leurs moyens, le Service de santé des armées, l'Institution nationale des invalides, les centres de santé, les maisons de santé, les pôles de santé et les groupements de coopération sanitaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Service_public_hospitalier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Service_public_hospitalier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Une variété d'acteurs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L’association au service public hospitalier</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un contrat conclu entre deux ou plusieurs établissements de santé dont un au moins est de droit public pour assurer le fonctionnement du service public hospitalier (loi du 31 juillet 1970). Ces contrats sont voués à disparition prochaine dans le cadre de la loi HPST.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Service_public_hospitalier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Service_public_hospitalier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Financement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'en 2004, les établissements publics de santé étaient financés par la dotation globale et les établissements de santé privés par la tarification à l'activité. Depuis cette date, tous les établissements publics ou privés sont passés à la tarification à l'activité (T2A).
 Les établissements de santé privés, précédemment tarifés en prix de journée préfectoral, peuvent être financés soit par dotation globale soit par conventionnement avec l'assurance maladie.
